--- a/update-testpage/ig/ValueSet-TumorPathologyEventType.xlsx
+++ b/update-testpage/ig/ValueSet-TumorPathologyEventType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-15T07:56:52+00:00</t>
+    <t>2025-05-15T08:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-testpage/ig/ValueSet-TumorPathologyEventType.xlsx
+++ b/update-testpage/ig/ValueSet-TumorPathologyEventType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-15T08:04:13+00:00</t>
+    <t>2025-05-15T10:05:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-testpage/ig/ValueSet-TumorPathologyEventType.xlsx
+++ b/update-testpage/ig/ValueSet-TumorPathologyEventType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-15T10:05:11+00:00</t>
+    <t>2025-05-19T07:51:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
